--- a/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>GAN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,134 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13900</v>
+        <v>10300</v>
       </c>
       <c r="E8" s="3">
-        <v>7400</v>
+        <v>8300</v>
       </c>
       <c r="F8" s="3">
-        <v>5700</v>
+        <v>7700</v>
       </c>
       <c r="G8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K8" s="3">
         <v>6200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>11400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
+      <c r="I9" s="3">
+        <v>11900</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -772,28 +800,40 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>18600</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
+      <c r="I10" s="3">
+        <v>2100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -801,8 +841,20 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +866,12 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,8 +899,20 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,28 +940,40 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>200</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>1100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+      <c r="I14" s="3">
+        <v>300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -901,8 +981,20 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +1022,20 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1044,94 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12900</v>
+        <v>14300</v>
       </c>
       <c r="E17" s="3">
-        <v>11700</v>
+        <v>16600</v>
       </c>
       <c r="F17" s="3">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="G17" s="3">
-        <v>8300</v>
+        <v>27500</v>
       </c>
       <c r="H17" s="3">
-        <v>8000</v>
+        <v>10400</v>
       </c>
       <c r="I17" s="3">
-        <v>8400</v>
+        <v>22200</v>
       </c>
       <c r="J17" s="3">
         <v>7700</v>
       </c>
       <c r="K17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M17" s="3">
+        <v>8400</v>
+      </c>
+      <c r="N17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="O17" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1100</v>
+        <v>-4000</v>
       </c>
       <c r="E18" s="3">
-        <v>-4300</v>
+        <v>-8300</v>
       </c>
       <c r="F18" s="3">
-        <v>-3900</v>
+        <v>700</v>
       </c>
       <c r="G18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,8 +1143,12 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1020,57 +1156,81 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1300</v>
+        <v>-3900</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1084,80 +1244,116 @@
         <v>5</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1000</v>
+        <v>-4100</v>
       </c>
       <c r="E23" s="3">
-        <v>-4200</v>
+        <v>-8600</v>
       </c>
       <c r="F23" s="3">
-        <v>-4200</v>
+        <v>600</v>
       </c>
       <c r="G23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>-1800</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1381,102 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>900</v>
+        <v>-4100</v>
       </c>
       <c r="E26" s="3">
-        <v>-3900</v>
+        <v>-8800</v>
       </c>
       <c r="F26" s="3">
-        <v>-3700</v>
+        <v>500</v>
       </c>
       <c r="G26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>900</v>
+        <v>-4100</v>
       </c>
       <c r="E27" s="3">
-        <v>-3900</v>
+        <v>-8800</v>
       </c>
       <c r="F27" s="3">
-        <v>-3700</v>
+        <v>500</v>
       </c>
       <c r="G27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1504,20 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1545,20 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1586,20 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,8 +1627,20 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1368,57 +1648,81 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>400</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>900</v>
+        <v>-4100</v>
       </c>
       <c r="E33" s="3">
-        <v>-3900</v>
+        <v>-8800</v>
       </c>
       <c r="F33" s="3">
-        <v>-3700</v>
+        <v>500</v>
       </c>
       <c r="G33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1750,107 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>900</v>
+        <v>-4100</v>
       </c>
       <c r="E35" s="3">
-        <v>-3900</v>
+        <v>-8800</v>
       </c>
       <c r="F35" s="3">
-        <v>-3700</v>
+        <v>500</v>
       </c>
       <c r="G35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1862,12 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1879,53 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11200</v>
+        <v>57500</v>
       </c>
       <c r="E41" s="3">
-        <v>6800</v>
+        <v>63800</v>
       </c>
       <c r="F41" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="G41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>3900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,66 +1953,102 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6500</v>
+        <v>9100</v>
       </c>
       <c r="E43" s="3">
-        <v>5200</v>
+        <v>7600</v>
       </c>
       <c r="F43" s="3">
-        <v>3700</v>
+        <v>9200</v>
       </c>
       <c r="G43" s="3">
-        <v>3500</v>
+        <v>7100</v>
       </c>
       <c r="H43" s="3">
-        <v>4300</v>
+        <v>5300</v>
       </c>
       <c r="I43" s="3">
-        <v>4800</v>
+        <v>9100</v>
       </c>
       <c r="J43" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="K43" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O43" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
+        <v>800</v>
+      </c>
+      <c r="G44" s="3">
+        <v>900</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+      <c r="I44" s="3">
+        <v>1200</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1660,86 +2056,122 @@
         <v>3200</v>
       </c>
       <c r="E45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="G45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20900</v>
+        <v>70200</v>
       </c>
       <c r="E46" s="3">
-        <v>13400</v>
+        <v>72800</v>
       </c>
       <c r="F46" s="3">
-        <v>11400</v>
+        <v>18000</v>
       </c>
       <c r="G46" s="3">
+        <v>19300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K46" s="3">
         <v>8100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>9600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>8700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>8500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1750,25 +2182,37 @@
         <v>1500</v>
       </c>
       <c r="F48" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="G48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1776,28 +2220,40 @@
         <v>6000</v>
       </c>
       <c r="E49" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="F49" s="3">
-        <v>6700</v>
+        <v>5000</v>
       </c>
       <c r="G49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K49" s="3">
         <v>7200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>7700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>7900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>7400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +2281,20 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +2322,61 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2404,61 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28400</v>
+        <v>78000</v>
       </c>
       <c r="E54" s="3">
-        <v>21700</v>
+        <v>79900</v>
       </c>
       <c r="F54" s="3">
-        <v>18800</v>
+        <v>24500</v>
       </c>
       <c r="G54" s="3">
+        <v>26100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>23100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K54" s="3">
         <v>15800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>17900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>17400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>17600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2470,12 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2487,258 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2900</v>
+        <v>13400</v>
       </c>
       <c r="E57" s="3">
-        <v>2000</v>
+        <v>12900</v>
       </c>
       <c r="F57" s="3">
-        <v>1900</v>
+        <v>6500</v>
       </c>
       <c r="G57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11700</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="3">
-        <v>6900</v>
+        <v>1900</v>
       </c>
       <c r="F59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="E60" s="3">
-        <v>9300</v>
+        <v>15200</v>
       </c>
       <c r="F60" s="3">
-        <v>3600</v>
+        <v>9100</v>
       </c>
       <c r="G60" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>600</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="K61" s="3">
         <v>2700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2766,20 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2807,20 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2848,61 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="E66" s="3">
-        <v>10200</v>
+        <v>15600</v>
       </c>
       <c r="F66" s="3">
-        <v>3800</v>
+        <v>9600</v>
       </c>
       <c r="G66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>6800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2914,12 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2947,20 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2988,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +3029,20 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +3070,61 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-21800</v>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>-18300</v>
+        <v>-21900</v>
       </c>
       <c r="G72" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-14700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-13000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-10600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +3152,20 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +3193,20 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +3234,61 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12600</v>
+        <v>62400</v>
       </c>
       <c r="E76" s="3">
-        <v>11500</v>
+        <v>64300</v>
       </c>
       <c r="F76" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="G76" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K76" s="3">
         <v>9300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>11100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>13500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>13000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +3316,107 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>900</v>
+        <v>-4100</v>
       </c>
       <c r="E81" s="3">
-        <v>-3900</v>
+        <v>-8800</v>
       </c>
       <c r="F81" s="3">
-        <v>-3700</v>
+        <v>500</v>
       </c>
       <c r="G81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +3428,53 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2900</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>2500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>2400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +3502,20 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +3543,20 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +3584,20 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3625,20 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3666,61 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6500</v>
-      </c>
-      <c r="E89" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3732,53 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E91" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3806,20 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3847,61 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3913,12 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3946,20 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3987,20 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +4028,20 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +4069,139 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>3200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4400</v>
-      </c>
-      <c r="E102" s="3">
-        <v>600</v>
-      </c>
-      <c r="F102" s="3">
-        <v>2900</v>
+        <v>-6400</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
@@ -2506,7 +2506,7 @@
         <v>6500</v>
       </c>
       <c r="G57" s="3">
-        <v>1700</v>
+        <v>6800</v>
       </c>
       <c r="H57" s="3">
         <v>2400</v>
@@ -2588,7 +2588,7 @@
         <v>2100</v>
       </c>
       <c r="G59" s="3">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="H59" s="3">
         <v>9500</v>

--- a/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>GAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,11 +665,10 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -677,129 +676,143 @@
     <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>35200</v>
+      </c>
+      <c r="F8" s="3">
         <v>10300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>30000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>11300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>14000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F9" s="3">
         <v>3900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
-        <v>11400</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I9" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>11900</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
@@ -812,35 +825,41 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F10" s="3">
         <v>6400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5100</v>
       </c>
-      <c r="G10" s="3">
-        <v>18600</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I10" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>2100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
@@ -853,8 +872,14 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,16 +895,18 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
+      <c r="D12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11000</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>5</v>
@@ -890,8 +917,8 @@
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
+      <c r="I12" s="3">
+        <v>3400</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>5</v>
@@ -911,8 +938,14 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,35 +985,41 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>1100</v>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
@@ -993,31 +1032,37 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+        <v>3300</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>4300</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1034,8 +1079,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1099,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F17" s="3">
         <v>14300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>16600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7000</v>
       </c>
-      <c r="G17" s="3">
-        <v>27500</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>27400</v>
+      </c>
+      <c r="J17" s="3">
         <v>10400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>22200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-8300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,38 +1212,40 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-100</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1188,172 +1255,202 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J21" s="3">
         <v>2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
+      <c r="I22" s="3">
+        <v>200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>600</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-1800</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1490,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2500</v>
       </c>
       <c r="M26" s="3">
         <v>-1800</v>
       </c>
       <c r="N26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-2500</v>
       </c>
       <c r="M27" s="3">
         <v>-1800</v>
       </c>
       <c r="N27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1631,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1678,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1725,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,38 +1772,44 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>100</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1680,49 +1819,61 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-2500</v>
       </c>
       <c r="M33" s="3">
         <v>-1800</v>
       </c>
       <c r="N33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1913,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-2500</v>
       </c>
       <c r="M35" s="3">
         <v>-1800</v>
       </c>
       <c r="N35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +2035,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +2054,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>152700</v>
+      </c>
+      <c r="F41" s="3">
         <v>57500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>63800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="G41" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J41" s="3">
         <v>9100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1965,76 +2144,88 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F43" s="3">
         <v>9100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>7600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>9200</v>
       </c>
-      <c r="G43" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J43" s="3">
         <v>5300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>9100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
@@ -2042,124 +2233,142 @@
         <v>5</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>163500</v>
+      </c>
+      <c r="F46" s="3">
         <v>70200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>72800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>18000</v>
       </c>
-      <c r="G46" s="3">
-        <v>19300</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J46" s="3">
         <v>17000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>13800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
         <v>300</v>
-      </c>
-      <c r="E47" s="3">
-        <v>100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>100</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+      <c r="H47" s="3">
+        <v>100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2170,90 +2379,108 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1300</v>
       </c>
       <c r="G48" s="3">
         <v>1500</v>
       </c>
       <c r="H48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>204700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F49" s="3">
         <v>6000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5000</v>
       </c>
-      <c r="G49" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J49" s="3">
         <v>4900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2520,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,16 +2567,22 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>3900</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2355,28 +2594,34 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2661,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>173200</v>
+      </c>
+      <c r="F54" s="3">
         <v>78000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>79900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>24500</v>
       </c>
-      <c r="G54" s="3">
-        <v>26100</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>26200</v>
+      </c>
+      <c r="J54" s="3">
         <v>23100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>22600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>15300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>15800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>17400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>17600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2731,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,81 +2750,89 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F57" s="3">
         <v>13400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>12900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="G57" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>9100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
       </c>
       <c r="I58" s="3">
+        <v>900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
@@ -2573,139 +2840,163 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J59" s="3">
         <v>9500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F60" s="3">
         <v>15200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9100</v>
       </c>
-      <c r="G60" s="3">
-        <v>10500</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J60" s="3">
         <v>12300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
-        <v>500</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>400</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
@@ -2713,32 +3004,38 @@
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>700</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +3075,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +3122,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3169,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F66" s="3">
         <v>15600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3239,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3282,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3329,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3376,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3423,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="D72" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>-21900</v>
       </c>
-      <c r="G72" s="3">
-        <v>-22800</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-16900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-25300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3517,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3564,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3611,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>250500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>155600</v>
+      </c>
+      <c r="F76" s="3">
         <v>62400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>64300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>14800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>15100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>12000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>13000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3705,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-2500</v>
       </c>
       <c r="M81" s="3">
         <v>-1800</v>
       </c>
       <c r="N81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,49 +3827,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3200</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
         <v>4700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>6200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3917,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3964,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +4011,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +4058,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +4105,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4600</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
         <v>6300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,31 +4175,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
         <v>1400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -3769,16 +4210,22 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4265,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4312,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,8 +4382,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3958,8 +4425,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4472,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4519,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4566,151 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>154700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>5200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>3200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>142400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6400</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>3600</v>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3">
         <v>3200</v>
       </c>
       <c r="J102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L102" s="3">
         <v>2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
-      </c>
-      <c r="L102" s="3">
-        <v>200</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-1000</v>
       </c>
       <c r="N102" s="3">
         <v>200</v>
       </c>
       <c r="O102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>GAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,164 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E8" s="3">
         <v>27800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>30000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>4800</v>
       </c>
       <c r="P8" s="3">
         <v>4800</v>
       </c>
       <c r="Q8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E9" s="3">
         <v>8700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>11900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
@@ -831,38 +838,41 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E10" s="3">
         <v>19100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>2100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
@@ -878,8 +888,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -897,32 +910,33 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E12" s="3">
         <v>4900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11000</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
         <v>3400</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
@@ -944,8 +958,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,19 +1008,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -1011,18 +1031,18 @@
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1038,34 +1058,37 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E15" s="3">
         <v>4000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3300</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>4300</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1085,8 +1108,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,102 +1127,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E17" s="3">
         <v>31600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,8 +1247,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1226,29 +1260,29 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1261,8 +1295,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1270,46 +1307,49 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <v>7000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,46 +1357,49 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1364,93 +1407,99 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-19900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-400</v>
       </c>
       <c r="M24" s="3">
         <v>-400</v>
       </c>
       <c r="N24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1800</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,8 +1545,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1505,46 +1557,49 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-20200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1552,46 +1607,49 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-20200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,8 +1695,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1684,8 +1745,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1795,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,8 +1845,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1790,29 +1860,29 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1825,8 +1895,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1834,46 +1907,49 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-20200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,8 +1995,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1928,98 +2007,104 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-20200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2122,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,55 +2142,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E41" s="3">
         <v>52200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>152700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>63800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2150,55 +2240,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
         <v>11900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>3500</v>
       </c>
       <c r="Q43" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2208,138 +2304,147 @@
       <c r="E44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>800</v>
       </c>
       <c r="H44" s="3">
         <v>800</v>
       </c>
       <c r="I44" s="3">
+        <v>800</v>
+      </c>
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1200</v>
       </c>
       <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
+      <c r="O45" s="3">
+        <v>1200</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E46" s="3">
         <v>70400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>163500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>70200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>72800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2349,11 +2454,11 @@
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
         <v>300</v>
-      </c>
-      <c r="G47" s="3">
-        <v>100</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
@@ -2361,8 +2466,8 @@
       <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
+      <c r="J47" s="3">
+        <v>100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -2370,8 +2475,8 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2385,102 +2490,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>207700</v>
+      </c>
+      <c r="E49" s="3">
         <v>204700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2640,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,19 +2690,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2594,34 +2714,37 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="Q52" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,55 +2790,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E54" s="3">
         <v>279000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>173200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>78000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>79900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2862,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,90 +2882,94 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
       </c>
       <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
@@ -2846,102 +2980,111 @@
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="E59" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F59" s="3">
         <v>12600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E60" s="3">
         <v>25700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>15200</v>
       </c>
       <c r="G60" s="3">
         <v>15200</v>
       </c>
       <c r="H60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I60" s="3">
         <v>9100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2952,43 +3095,46 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>400</v>
       </c>
       <c r="H61" s="3">
+        <v>400</v>
+      </c>
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2996,46 +3142,49 @@
         <v>2700</v>
       </c>
       <c r="E62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
-      </c>
-      <c r="P62" s="3">
-        <v>400</v>
       </c>
       <c r="Q62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3230,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3280,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,55 +3330,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E66" s="3">
         <v>28500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>15600</v>
       </c>
       <c r="G66" s="3">
         <v>15600</v>
       </c>
       <c r="H66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="I66" s="3">
         <v>9600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3402,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3450,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,8 +3500,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3382,8 +3550,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,55 +3600,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-50200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>-21900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3700,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3750,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,55 +3800,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>252600</v>
+      </c>
+      <c r="E76" s="3">
         <v>250500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>155600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>64300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,60 +3900,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3772,46 +3967,49 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-20200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,55 +4027,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E83" s="3">
         <v>4000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
         <v>4700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4125,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4175,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4225,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4275,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,55 +4325,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
         <v>6300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,44 +4397,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>1400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>-200</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4222,10 +4443,13 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4495,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,55 +4545,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-95000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,8 +4617,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4431,8 +4665,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4715,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4765,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,145 +4815,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>154700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>142400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6400</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>GAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,174 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E8" s="3">
         <v>34600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>30000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4800</v>
       </c>
       <c r="Q8" s="3">
         <v>4800</v>
       </c>
       <c r="R8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E9" s="3">
         <v>10400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>11900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
@@ -841,41 +848,44 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E10" s="3">
         <v>24200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>2100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
@@ -891,8 +901,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,35 +924,36 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E12" s="3">
         <v>4100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
@@ -961,8 +975,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1011,8 +1028,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1022,11 +1042,11 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -1034,18 +1054,18 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1061,37 +1081,40 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E15" s="3">
         <v>4100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3300</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>4300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1111,8 +1134,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1128,108 +1154,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E17" s="3">
         <v>36400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>54600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,13 +1281,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1263,29 +1297,29 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1298,58 +1332,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-1700</v>
       </c>
       <c r="E21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>7000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1360,146 +1400,155 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>-6400</v>
       </c>
       <c r="E23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-400</v>
       </c>
       <c r="N24" s="3">
         <v>-400</v>
       </c>
       <c r="O24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1548,108 +1597,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>-7900</v>
       </c>
       <c r="E26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>-7900</v>
       </c>
       <c r="E27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1698,8 +1756,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1748,8 +1809,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1798,8 +1862,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1848,13 +1915,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1863,29 +1933,29 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1898,58 +1968,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>-7900</v>
       </c>
       <c r="E33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1998,113 +2074,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>-7900</v>
       </c>
       <c r="E35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2123,8 +2208,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2143,58 +2229,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E41" s="3">
         <v>52100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>152700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>57500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>63800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2243,58 +2333,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
+      <c r="D43" s="3">
+        <v>7200</v>
       </c>
       <c r="E43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F43" s="3">
         <v>11900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>3500</v>
       </c>
       <c r="R43" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2307,144 +2403,153 @@
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
         <v>400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>800</v>
       </c>
       <c r="I44" s="3">
         <v>800</v>
       </c>
       <c r="J44" s="3">
+        <v>800</v>
+      </c>
+      <c r="K44" s="3">
         <v>900</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1200</v>
       </c>
       <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
+      <c r="P45" s="3">
+        <v>1200</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E46" s="3">
         <v>68500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>70400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>163500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>70200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>72800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2457,11 +2562,11 @@
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
         <v>300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>100</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
@@ -2469,8 +2574,8 @@
       <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
+      <c r="K47" s="3">
+        <v>100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
@@ -2478,8 +2583,8 @@
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2493,8 +2598,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2504,97 +2612,103 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>202700</v>
+      </c>
+      <c r="E49" s="3">
         <v>207700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>204700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2643,8 +2757,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2693,22 +2810,25 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -2717,34 +2837,37 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2793,58 +2916,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E54" s="3">
         <v>283900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>279000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>173200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>78000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>79900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2863,8 +2992,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2883,58 +3013,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2944,35 +3078,35 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
       </c>
       <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
@@ -2983,108 +3117,117 @@
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E59" s="3">
         <v>24500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E60" s="3">
         <v>28600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>15200</v>
       </c>
       <c r="H60" s="3">
         <v>15200</v>
       </c>
       <c r="I60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J60" s="3">
         <v>9100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3098,93 +3241,99 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>400</v>
       </c>
       <c r="I61" s="3">
+        <v>400</v>
+      </c>
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E62" s="3">
         <v>2700</v>
       </c>
       <c r="F62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>400</v>
       </c>
       <c r="R62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3233,8 +3382,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3283,8 +3435,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3333,58 +3488,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>28500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>15600</v>
       </c>
       <c r="H66" s="3">
         <v>15600</v>
       </c>
       <c r="I66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J66" s="3">
         <v>9600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3403,8 +3564,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3453,8 +3615,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3503,8 +3668,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3553,8 +3721,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3603,58 +3774,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-53000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-50200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>-21900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3703,8 +3880,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3753,8 +3933,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3803,58 +3986,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E76" s="3">
         <v>252600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>250500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>155600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>62400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>64300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3903,113 +4092,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>-7900</v>
       </c>
       <c r="E81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4028,58 +4226,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
         <v>4100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>4700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4128,8 +4330,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4178,8 +4383,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4228,8 +4436,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4278,8 +4489,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4328,58 +4542,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4600</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>6300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4398,47 +4618,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>1400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>-200</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4446,10 +4667,13 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4498,8 +4722,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4548,58 +4775,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-95000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4618,8 +4851,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4668,8 +4902,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4718,8 +4955,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4768,8 +5008,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4818,154 +5061,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>154700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-1800</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>142400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6400</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>GAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,183 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E8" s="3">
         <v>32300</v>
       </c>
-      <c r="E8" s="3">
-        <v>34600</v>
-      </c>
       <c r="F8" s="3">
-        <v>27800</v>
+        <v>34400</v>
       </c>
       <c r="G8" s="3">
+        <v>27100</v>
+      </c>
+      <c r="H8" s="3">
         <v>35200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>4800</v>
       </c>
       <c r="R8" s="3">
         <v>4800</v>
       </c>
       <c r="S8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="T8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E9" s="3">
         <v>10800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>11900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
@@ -851,44 +857,47 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E10" s="3">
         <v>21500</v>
       </c>
-      <c r="E10" s="3">
-        <v>24200</v>
-      </c>
       <c r="F10" s="3">
-        <v>19100</v>
+        <v>24000</v>
       </c>
       <c r="G10" s="3">
+        <v>18400</v>
+      </c>
+      <c r="H10" s="3">
         <v>24700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
@@ -904,8 +913,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,38 +937,39 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="E12" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="F12" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H12" s="3">
         <v>11000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
@@ -978,8 +991,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1031,13 +1047,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>3500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
@@ -1045,11 +1064,11 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
@@ -1057,18 +1076,18 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1084,40 +1103,43 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E15" s="3">
         <v>4600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3300</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>4300</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1137,8 +1159,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1155,114 +1180,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>38600</v>
+        <v>46800</v>
       </c>
       <c r="E17" s="3">
-        <v>36400</v>
+        <v>39400</v>
       </c>
       <c r="F17" s="3">
-        <v>31600</v>
+        <v>37100</v>
       </c>
       <c r="G17" s="3">
+        <v>32100</v>
+      </c>
+      <c r="H17" s="3">
         <v>54600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6300</v>
+        <v>-16400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1800</v>
+        <v>-7100</v>
       </c>
       <c r="F18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K18" s="3">
+        <v>700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>900</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="T18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-19400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-3800</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1282,47 +1314,48 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1335,61 +1368,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1700</v>
+        <v>-11800</v>
       </c>
       <c r="E21" s="3">
-        <v>2400</v>
+        <v>-2600</v>
       </c>
       <c r="F21" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="G21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H21" s="3">
         <v>-16300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>7000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1403,152 +1442,161 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6400</v>
+        <v>-16000</v>
       </c>
       <c r="E23" s="3">
-        <v>-1700</v>
+        <v>-7100</v>
       </c>
       <c r="F23" s="3">
-        <v>-3800</v>
+        <v>-2800</v>
       </c>
       <c r="G23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-19900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-400</v>
       </c>
       <c r="O24" s="3">
         <v>-400</v>
       </c>
       <c r="P24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1800</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1600,114 +1648,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7900</v>
+        <v>-12500</v>
       </c>
       <c r="E26" s="3">
-        <v>-2700</v>
+        <v>-8700</v>
       </c>
       <c r="F26" s="3">
-        <v>-4500</v>
+        <v>-3800</v>
       </c>
       <c r="G26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-20200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7900</v>
+        <v>-12500</v>
       </c>
       <c r="E27" s="3">
-        <v>-2700</v>
+        <v>-8700</v>
       </c>
       <c r="F27" s="3">
-        <v>-4500</v>
+        <v>-3800</v>
       </c>
       <c r="G27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-20200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1759,8 +1816,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1812,8 +1872,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1865,8 +1928,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1918,47 +1984,50 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1971,61 +2040,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7900</v>
+        <v>-12500</v>
       </c>
       <c r="E33" s="3">
-        <v>-2700</v>
+        <v>-8700</v>
       </c>
       <c r="F33" s="3">
-        <v>-4500</v>
+        <v>-3800</v>
       </c>
       <c r="G33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-20200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2077,119 +2152,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7900</v>
+        <v>-12500</v>
       </c>
       <c r="E35" s="3">
-        <v>-2700</v>
+        <v>-8700</v>
       </c>
       <c r="F35" s="3">
-        <v>-4500</v>
+        <v>-3800</v>
       </c>
       <c r="G35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-20200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2209,8 +2293,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2230,61 +2315,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E41" s="3">
         <v>50300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>152700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>57500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>63800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2336,61 +2425,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7200</v>
+        <v>8100</v>
       </c>
       <c r="E43" s="3">
-        <v>12000</v>
+        <v>7400</v>
       </c>
       <c r="F43" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="G43" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H43" s="3">
         <v>8100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4800</v>
-      </c>
-      <c r="R43" s="3">
-        <v>3500</v>
       </c>
       <c r="S43" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2406,150 +2501,159 @@
       <c r="G44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
         <v>400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>800</v>
       </c>
       <c r="J44" s="3">
         <v>800</v>
       </c>
       <c r="K44" s="3">
+        <v>800</v>
+      </c>
+      <c r="L44" s="3">
         <v>900</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>1200</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>100</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1200</v>
       </c>
       <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
+      <c r="Q45" s="3">
+        <v>1200</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>62300</v>
+        <v>54400</v>
       </c>
       <c r="E46" s="3">
-        <v>68500</v>
+        <v>62500</v>
       </c>
       <c r="F46" s="3">
-        <v>70400</v>
+        <v>68800</v>
       </c>
       <c r="G46" s="3">
+        <v>70600</v>
+      </c>
+      <c r="H46" s="3">
         <v>163500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>70200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>72800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2565,11 +2669,11 @@
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
         <v>300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>100</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
@@ -2577,8 +2681,8 @@
       <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
+      <c r="L47" s="3">
+        <v>100</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
@@ -2586,8 +2690,8 @@
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2601,13 +2705,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>800</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
@@ -2615,100 +2722,106 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>202700</v>
+        <v>196500</v>
       </c>
       <c r="E49" s="3">
-        <v>207700</v>
+        <v>200900</v>
       </c>
       <c r="F49" s="3">
-        <v>204700</v>
+        <v>206500</v>
       </c>
       <c r="G49" s="3">
+        <v>204300</v>
+      </c>
+      <c r="H49" s="3">
         <v>7100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2760,8 +2873,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2813,25 +2929,28 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E52" s="3">
         <v>13000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -2840,34 +2959,37 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
       </c>
       <c r="R52" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2919,61 +3041,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>278000</v>
+        <v>260900</v>
       </c>
       <c r="E54" s="3">
-        <v>283900</v>
+        <v>276400</v>
       </c>
       <c r="F54" s="3">
-        <v>279000</v>
+        <v>283000</v>
       </c>
       <c r="G54" s="3">
+        <v>278800</v>
+      </c>
+      <c r="H54" s="3">
         <v>173200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>78000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>79900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2993,8 +3121,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3014,66 +3143,70 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>5</v>
@@ -3081,35 +3214,35 @@
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
       </c>
       <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
@@ -3120,114 +3253,123 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28500</v>
+        <v>27800</v>
       </c>
       <c r="E59" s="3">
-        <v>24500</v>
+        <v>28700</v>
       </c>
       <c r="F59" s="3">
-        <v>21400</v>
+        <v>24600</v>
       </c>
       <c r="G59" s="3">
+        <v>21200</v>
+      </c>
+      <c r="H59" s="3">
         <v>12600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33200</v>
+        <v>33000</v>
       </c>
       <c r="E60" s="3">
-        <v>28600</v>
+        <v>33300</v>
       </c>
       <c r="F60" s="3">
-        <v>25700</v>
+        <v>28800</v>
       </c>
       <c r="G60" s="3">
+        <v>25500</v>
+      </c>
+      <c r="H60" s="3">
         <v>17300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>15200</v>
       </c>
       <c r="I60" s="3">
         <v>15200</v>
       </c>
       <c r="J60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K60" s="3">
         <v>9100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3244,96 +3386,102 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>400</v>
       </c>
       <c r="J61" s="3">
+        <v>400</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="E62" s="3">
-        <v>2700</v>
+        <v>3900</v>
       </c>
       <c r="F62" s="3">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="G62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>300</v>
-      </c>
-      <c r="R62" s="3">
-        <v>400</v>
       </c>
       <c r="S62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3385,8 +3533,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3438,8 +3589,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3491,61 +3645,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36000</v>
+        <v>36900</v>
       </c>
       <c r="E66" s="3">
-        <v>31300</v>
+        <v>37200</v>
       </c>
       <c r="F66" s="3">
-        <v>28500</v>
+        <v>32500</v>
       </c>
       <c r="G66" s="3">
+        <v>29400</v>
+      </c>
+      <c r="H66" s="3">
         <v>17700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>15600</v>
       </c>
       <c r="I66" s="3">
         <v>15600</v>
       </c>
       <c r="J66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K66" s="3">
         <v>9600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3565,8 +3725,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3618,8 +3779,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3671,8 +3835,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3724,8 +3891,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3777,61 +3947,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-60900</v>
+        <v>-76400</v>
       </c>
       <c r="E72" s="3">
-        <v>-53000</v>
+        <v>-63800</v>
       </c>
       <c r="F72" s="3">
-        <v>-50200</v>
+        <v>-55100</v>
       </c>
       <c r="G72" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-45800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-21900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3883,8 +4059,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3936,8 +4115,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3989,61 +4171,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>242000</v>
+        <v>224000</v>
       </c>
       <c r="E76" s="3">
-        <v>252600</v>
+        <v>239200</v>
       </c>
       <c r="F76" s="3">
-        <v>250500</v>
+        <v>250400</v>
       </c>
       <c r="G76" s="3">
+        <v>249400</v>
+      </c>
+      <c r="H76" s="3">
         <v>155600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>62400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>64300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4095,119 +4283,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7900</v>
+        <v>-12500</v>
       </c>
       <c r="E81" s="3">
-        <v>-2700</v>
+        <v>-8700</v>
       </c>
       <c r="F81" s="3">
-        <v>-4500</v>
+        <v>-3800</v>
       </c>
       <c r="G81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-20200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4227,61 +4424,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E83" s="3">
         <v>4600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>4700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4333,8 +4534,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4386,8 +4590,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4439,8 +4646,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4492,8 +4702,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4545,61 +4758,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
-        <v>8400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
-        <v>6300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O89" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4619,50 +4838,51 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>1400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>-200</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -4670,10 +4890,13 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4725,8 +4948,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4778,61 +5004,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1000</v>
+        <v>-4000</v>
       </c>
       <c r="E94" s="3">
-        <v>-8700</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-95000</v>
+        <v>-7900</v>
       </c>
       <c r="G94" s="3">
+        <v>-94600</v>
+      </c>
+      <c r="H94" s="3">
         <v>-5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4852,8 +5084,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4905,8 +5138,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4958,8 +5194,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5011,8 +5250,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5064,163 +5306,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>154700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>142400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6400</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>GAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,14 +665,14 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -680,174 +680,188 @@
     <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F8" s="3">
         <v>30400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>32300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>34400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>27100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>35200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>30000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>14000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F9" s="3">
         <v>11500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>10800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>10400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>8700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>10500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>18500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>11900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
@@ -860,50 +874,56 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F10" s="3">
         <v>18900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>21500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>24000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>18400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>24700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>6400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>11500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>2100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
@@ -916,8 +936,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -938,44 +964,46 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F12" s="3">
         <v>7000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>5200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>11000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
@@ -994,8 +1022,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1050,50 +1084,56 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3">
         <v>3500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1106,46 +1146,52 @@
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4100</v>
+        <v>6600</v>
       </c>
       <c r="E15" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="F15" s="3">
         <v>4100</v>
       </c>
       <c r="G15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I15" s="3">
         <v>4000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3300</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>4300</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1162,8 +1208,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1181,120 +1233,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>41600</v>
+      </c>
+      <c r="F17" s="3">
         <v>46800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>39400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>37100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>32100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>54600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>14300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>27400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>22200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-19400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-8200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1315,53 +1381,55 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1371,72 +1439,84 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-16300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>7000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1445,158 +1525,176 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-16000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-19900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-8600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>600</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>-900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-1800</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1651,120 +1749,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-12500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-20200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-2500</v>
       </c>
       <c r="R26" s="3">
         <v>-1800</v>
       </c>
       <c r="S26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-12500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-20200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-2500</v>
       </c>
       <c r="R27" s="3">
         <v>-1800</v>
       </c>
       <c r="S27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1819,8 +1935,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1875,8 +1997,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1931,8 +2059,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1987,53 +2121,59 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2043,64 +2183,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-12500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-20200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-2500</v>
       </c>
       <c r="R33" s="3">
         <v>-1800</v>
       </c>
       <c r="S33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2155,125 +2307,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-12500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-20200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-2500</v>
       </c>
       <c r="R35" s="3">
         <v>-1800</v>
       </c>
       <c r="S35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2294,8 +2464,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2316,64 +2488,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F41" s="3">
         <v>39500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>50300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>52100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>52200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>152700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>57500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>63800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>9100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2428,64 +2608,76 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F43" s="3">
         <v>8100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>7400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>12200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>12200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>8100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>9100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>9200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>12700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>9100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>4300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2504,30 +2696,30 @@
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>1200</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
@@ -2535,125 +2727,143 @@
         <v>5</v>
       </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>100</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F45" s="3">
         <v>6800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>49200</v>
+      </c>
+      <c r="F46" s="3">
         <v>54400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>62500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>68800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>70600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>163500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>70200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>72800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>18000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>18800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>17000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>13800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>9200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>9600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2672,32 +2882,32 @@
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>100</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
+      <c r="M47" s="3">
+        <v>100</v>
+      </c>
+      <c r="N47" s="3">
+        <v>100</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2708,120 +2918,138 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+      <c r="F48" s="3">
+        <v>3300</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>191800</v>
+      </c>
+      <c r="F49" s="3">
         <v>196500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>200900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>206500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>204300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>7100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>10300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>6800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>7200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>7700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>7900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>7400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2876,8 +3104,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2932,64 +3166,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9200</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G52" s="3">
         <v>13000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>800</v>
+      </c>
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3044,64 +3290,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>250700</v>
+      </c>
+      <c r="F54" s="3">
         <v>260900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>276400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>283000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>278800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>173200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>78000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>79900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>24500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>26200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>23100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>22600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>15300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>15800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>17900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>17400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>17600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3122,8 +3380,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3144,111 +3404,119 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>13400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>12900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>9400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>900</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
       </c>
       <c r="N58" s="3">
+        <v>900</v>
+      </c>
+      <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>5</v>
@@ -3256,125 +3524,143 @@
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F59" s="3">
         <v>27800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>28700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>24600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>21200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>12600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F60" s="3">
         <v>33000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>33300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>28800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>25500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>17300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>15200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>15200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>27700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3389,99 +3675,111 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F62" s="3">
         <v>3800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>3700</v>
       </c>
       <c r="G62" s="3">
         <v>3900</v>
       </c>
       <c r="H62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3536,8 +3834,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3592,8 +3896,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3648,64 +3958,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F66" s="3">
         <v>36900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>37200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>32500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>29400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>17700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>11000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3726,8 +4048,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3782,8 +4106,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3838,8 +4168,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3894,8 +4230,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3950,64 +4292,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-76400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-63800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-55100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-51400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-45800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-21900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-23000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-25300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-14800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-10600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-8900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4062,8 +4416,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4118,8 +4478,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4174,64 +4540,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>217000</v>
+      </c>
+      <c r="F76" s="3">
         <v>224000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>239200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>250400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>249400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>155600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>62400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>64300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>15100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>10200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>12000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>12200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>11100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>13500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>13000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4286,125 +4664,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-12500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-20200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-2500</v>
       </c>
       <c r="R81" s="3">
         <v>-1800</v>
       </c>
       <c r="S81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4425,64 +4821,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4100</v>
+        <v>6600</v>
       </c>
       <c r="E83" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="F83" s="3">
         <v>4100</v>
       </c>
       <c r="G83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I83" s="3">
         <v>4000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>4700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>6200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4537,8 +4941,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4593,8 +5003,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4649,8 +5065,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4705,8 +5127,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4761,64 +5189,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4600</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>6300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>5300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4839,46 +5279,48 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="G91" s="3">
         <v>-400</v>
       </c>
       <c r="H91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>1400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
@@ -4887,16 +5329,22 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4951,8 +5399,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5007,64 +5461,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-94600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5085,8 +5551,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5141,8 +5609,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5197,8 +5671,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5253,8 +5733,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5309,172 +5795,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>154700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>5700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>5200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>2500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>3200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-10800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>142400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-6400</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
-        <v>3200</v>
-      </c>
-      <c r="M102" s="3">
-        <v>3600</v>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N102" s="3">
         <v>3200</v>
       </c>
       <c r="O102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>200</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-1000</v>
       </c>
       <c r="S102" s="3">
         <v>200</v>
       </c>
       <c r="T102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U102" s="3">
+        <v>200</v>
+      </c>
+      <c r="V102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>GAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,213 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E8" s="3">
         <v>35000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>37500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>27100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5000</v>
-      </c>
-      <c r="T8" s="3">
-        <v>4800</v>
       </c>
       <c r="U8" s="3">
         <v>4800</v>
       </c>
       <c r="V8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="W8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E9" s="3">
         <v>10500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>11900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
@@ -880,53 +887,56 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E10" s="3">
         <v>24500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
@@ -942,8 +952,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -966,47 +979,48 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
         <v>3400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1028,8 +1042,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1090,34 +1107,37 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>29600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1125,18 +1145,18 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1152,49 +1172,52 @@
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E15" s="3">
         <v>6600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>4300</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1214,8 +1237,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1235,132 +1261,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E17" s="3">
         <v>72700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>46800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>54600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1383,56 +1416,57 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1445,81 +1479,87 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-32000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>7000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>1100</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1531,170 +1571,179 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-400</v>
       </c>
       <c r="R24" s="3">
         <v>-400</v>
       </c>
       <c r="S24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T24" s="3">
         <v>-500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1800</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1755,132 +1804,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1941,8 +1999,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2003,8 +2064,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2065,8 +2129,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2127,56 +2194,59 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2189,70 +2259,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2313,137 +2389,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2466,8 +2551,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2490,70 +2576,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E41" s="3">
         <v>49100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>152700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>57500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2614,285 +2704,300 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E43" s="3">
         <v>11200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>12200</v>
       </c>
       <c r="I43" s="3">
         <v>12200</v>
       </c>
       <c r="J43" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K43" s="3">
         <v>8100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4800</v>
-      </c>
-      <c r="U43" s="3">
-        <v>3500</v>
       </c>
       <c r="V43" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>800</v>
       </c>
       <c r="M44" s="3">
         <v>800</v>
       </c>
       <c r="N44" s="3">
+        <v>800</v>
+      </c>
+      <c r="O44" s="3">
         <v>900</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1200</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>100</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>7000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1200</v>
       </c>
       <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
+      <c r="T45" s="3">
+        <v>1200</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E46" s="3">
         <v>67400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>49200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>54400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>62500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>68800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>70600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>163500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>70200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>72800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>300</v>
-      </c>
-      <c r="L47" s="3">
-        <v>100</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
@@ -2900,8 +3005,8 @@
       <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
+      <c r="O47" s="3">
+        <v>100</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
@@ -2909,8 +3014,8 @@
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2924,132 +3029,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>162900</v>
+      </c>
+      <c r="E49" s="3">
         <v>174200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>191800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>196500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>200900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>206500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>204300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3110,8 +3224,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3172,34 +3289,37 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3208,34 +3328,37 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>200</v>
       </c>
       <c r="U52" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="V52" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3296,70 +3419,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>230100</v>
+      </c>
+      <c r="E54" s="3">
         <v>246000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>250700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>260900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>276400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>283000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>278800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>173200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>79900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3382,8 +3511,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3406,8 +3536,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,61 +3546,64 @@
         <v>6300</v>
       </c>
       <c r="E57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3479,11 +3613,11 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -3491,35 +3625,35 @@
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
       </c>
       <c r="N58" s="3">
+        <v>500</v>
+      </c>
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>5</v>
@@ -3530,141 +3664,150 @@
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E59" s="3">
         <v>21200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E60" s="3">
         <v>27400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>28800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>25500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>15200</v>
       </c>
       <c r="L60" s="3">
         <v>15200</v>
       </c>
       <c r="M60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="N60" s="3">
         <v>9100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E61" s="3">
         <v>27700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3681,105 +3824,111 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>400</v>
       </c>
       <c r="M61" s="3">
+        <v>400</v>
+      </c>
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E62" s="3">
         <v>21900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>300</v>
-      </c>
-      <c r="U62" s="3">
-        <v>400</v>
       </c>
       <c r="V62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3840,8 +3989,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3902,8 +4054,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3964,70 +4119,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E66" s="3">
         <v>77000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>15600</v>
       </c>
       <c r="L66" s="3">
         <v>15600</v>
       </c>
       <c r="M66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="N66" s="3">
         <v>9600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4050,8 +4211,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4112,8 +4274,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4174,8 +4339,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4236,8 +4404,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4298,70 +4469,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-127200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-120200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-80900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-76400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-51400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-21900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4422,8 +4599,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4484,8 +4664,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4546,70 +4729,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>152400</v>
+      </c>
+      <c r="E76" s="3">
         <v>169000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>217000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>224000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>239200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>250400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>249400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>155600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>62400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>64300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4670,137 +4859,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4823,70 +5021,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>4700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4947,8 +5149,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5009,8 +5214,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5071,8 +5279,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5133,8 +5344,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5195,70 +5409,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>6300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5281,59 +5501,60 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>1400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>-200</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5341,10 +5562,13 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5405,8 +5629,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5467,70 +5694,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8500</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-4000</v>
       </c>
       <c r="F94" s="3">
         <v>-4000</v>
       </c>
       <c r="G94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-94600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5553,8 +5786,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5615,8 +5849,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5677,8 +5914,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5739,8 +5979,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5801,190 +6044,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>27000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>154700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>2500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E102" s="3">
         <v>15500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>142400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>GAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,216 +665,222 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E8" s="3">
         <v>32100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>27100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5000</v>
-      </c>
-      <c r="U8" s="3">
-        <v>4800</v>
       </c>
       <c r="V8" s="3">
         <v>4800</v>
       </c>
       <c r="W8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="X8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>11900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
@@ -890,56 +896,59 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E10" s="3">
         <v>22700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11500</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
@@ -955,8 +964,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -980,50 +992,51 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E12" s="3">
         <v>5000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
         <v>3400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1045,8 +1058,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1110,37 +1126,40 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>137100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>29600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
@@ -1148,18 +1167,18 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1175,52 +1194,55 @@
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E15" s="3">
         <v>5900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3300</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>4300</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1240,8 +1262,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1262,138 +1287,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>182400</v>
+      </c>
+      <c r="E17" s="3">
         <v>37300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>46800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>54600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>27400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-145500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1417,59 +1449,60 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1482,87 +1515,93 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-137900</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-32000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>7000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1574,176 +1613,185 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-144300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-900</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-400</v>
       </c>
       <c r="S24" s="3">
         <v>-400</v>
       </c>
       <c r="T24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U24" s="3">
         <v>-500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1800</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1807,138 +1855,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2002,8 +2059,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2067,8 +2127,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2132,8 +2195,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2197,59 +2263,62 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2262,73 +2331,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2392,143 +2467,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2552,8 +2636,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2577,73 +2662,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E41" s="3">
         <v>41800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>152700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>57500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>63800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2707,73 +2796,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E43" s="3">
         <v>13100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>12200</v>
       </c>
       <c r="J43" s="3">
         <v>12200</v>
       </c>
       <c r="K43" s="3">
+        <v>12200</v>
+      </c>
+      <c r="L43" s="3">
         <v>8100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4800</v>
-      </c>
-      <c r="V43" s="3">
-        <v>3500</v>
       </c>
       <c r="W43" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2798,47 +2893,50 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>800</v>
       </c>
       <c r="N44" s="3">
         <v>800</v>
       </c>
       <c r="O44" s="3">
+        <v>800</v>
+      </c>
+      <c r="P44" s="3">
         <v>900</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>1200</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>100</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2846,129 +2944,135 @@
         <v>7900</v>
       </c>
       <c r="E45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F45" s="3">
         <v>7000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1200</v>
       </c>
       <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
+      <c r="U45" s="3">
+        <v>1200</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E46" s="3">
         <v>62900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>67400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>49200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>54400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>62500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>68800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>70600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>163500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>70200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>72800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2993,14 +3097,14 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>300</v>
-      </c>
-      <c r="M47" s="3">
-        <v>100</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
@@ -3008,8 +3112,8 @@
       <c r="O47" s="3">
         <v>100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
+      <c r="P47" s="3">
+        <v>100</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
@@ -3017,8 +3121,8 @@
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3032,138 +3136,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E49" s="3">
         <v>162900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>174200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>191800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>196500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>200900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>206500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>204300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3227,8 +3340,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3292,37 +3408,40 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -3331,34 +3450,37 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
         <v>800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>200</v>
       </c>
       <c r="V52" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="W52" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3422,73 +3544,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E54" s="3">
         <v>230100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>246000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>250700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>260900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>276400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>283000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>278800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>173200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>79900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3512,8 +3640,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3537,126 +3666,130 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E57" s="3">
         <v>6300</v>
       </c>
       <c r="F57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
       </c>
       <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>5</v>
@@ -3667,150 +3800,159 @@
       <c r="W58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E59" s="3">
         <v>20300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E60" s="3">
         <v>26700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>28800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>25500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>15200</v>
       </c>
       <c r="M60" s="3">
         <v>15200</v>
       </c>
       <c r="N60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="O60" s="3">
         <v>9100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E61" s="3">
         <v>27900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>27700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3827,108 +3969,114 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>400</v>
       </c>
       <c r="N61" s="3">
+        <v>400</v>
+      </c>
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2500</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E62" s="3">
         <v>23200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>300</v>
-      </c>
-      <c r="V62" s="3">
-        <v>400</v>
       </c>
       <c r="W62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3992,8 +4140,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4057,8 +4208,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4122,73 +4276,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E66" s="3">
         <v>77700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>36900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>15600</v>
       </c>
       <c r="M66" s="3">
         <v>15600</v>
       </c>
       <c r="N66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="O66" s="3">
         <v>9600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4212,8 +4372,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4277,8 +4438,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4342,8 +4506,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4407,8 +4574,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4472,73 +4642,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-274900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-127200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-120200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-80900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-51400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-21900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-25300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4602,8 +4778,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4667,8 +4846,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4732,73 +4914,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E76" s="3">
         <v>152400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>169000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>217000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>224000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>239200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>250400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>249400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>155600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>62400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>64300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4862,143 +5050,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5022,73 +5219,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E83" s="3">
         <v>5900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>4700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5152,8 +5353,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5217,8 +5421,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5282,8 +5489,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5347,8 +5557,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5412,73 +5625,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>6300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5502,62 +5721,63 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>-5000</v>
       </c>
       <c r="F91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>1400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>-200</v>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -5565,10 +5785,13 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5632,8 +5855,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5697,73 +5923,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-4000</v>
       </c>
       <c r="G94" s="3">
         <v>-4000</v>
       </c>
       <c r="H94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-94600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5787,8 +6019,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5852,8 +6085,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5917,8 +6153,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5982,8 +6221,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6047,199 +6289,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>27000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>154700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>2500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>142400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>GAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,225 +665,232 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E8" s="3">
         <v>36900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>30400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>30000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5000</v>
-      </c>
-      <c r="V8" s="3">
-        <v>4800</v>
       </c>
       <c r="W8" s="3">
         <v>4800</v>
       </c>
       <c r="X8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Y8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E9" s="3">
         <v>10000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>11900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
@@ -899,59 +906,62 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E10" s="3">
         <v>26900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
@@ -967,8 +977,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,53 +1006,54 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E12" s="3">
         <v>7200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3">
         <v>3400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1061,8 +1075,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1129,40 +1146,43 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E14" s="3">
         <v>137100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>29600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
@@ -1170,18 +1190,18 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1197,55 +1217,58 @@
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E15" s="3">
         <v>6400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3300</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>4300</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1265,8 +1288,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1288,144 +1314,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E17" s="3">
         <v>182400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>46800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>27400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-145500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,62 +1483,63 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1518,93 +1552,99 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-137900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-32000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>7000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1616,182 +1656,191 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-144300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-38600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-900</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-400</v>
       </c>
       <c r="T24" s="3">
         <v>-400</v>
       </c>
       <c r="U24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V24" s="3">
         <v>-500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1800</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1858,144 +1907,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-147700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-147700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2062,8 +2120,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2130,8 +2191,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2198,8 +2262,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2266,62 +2333,65 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2334,76 +2404,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-147700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2470,149 +2546,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-147700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2637,8 +2722,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2663,76 +2749,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E41" s="3">
         <v>45900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>152700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>57500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2799,76 +2889,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E43" s="3">
         <v>13800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>12200</v>
       </c>
       <c r="K43" s="3">
         <v>12200</v>
       </c>
       <c r="L43" s="3">
+        <v>12200</v>
+      </c>
+      <c r="M43" s="3">
         <v>8100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4800</v>
-      </c>
-      <c r="W43" s="3">
-        <v>3500</v>
       </c>
       <c r="X43" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2896,183 +2992,192 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>800</v>
       </c>
       <c r="O44" s="3">
         <v>800</v>
       </c>
       <c r="P44" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
       <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>1200</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>100</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7900</v>
+        <v>8400</v>
       </c>
       <c r="E45" s="3">
         <v>7900</v>
       </c>
       <c r="F45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1200</v>
       </c>
       <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
+      <c r="V45" s="3">
+        <v>1200</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E46" s="3">
         <v>67600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>62900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>67400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>49200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>54400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>62500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>68800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>70600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>163500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>70200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>72800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3100,14 +3205,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>300</v>
-      </c>
-      <c r="N47" s="3">
-        <v>100</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
@@ -3115,8 +3220,8 @@
       <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
+      <c r="Q47" s="3">
+        <v>100</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>5</v>
@@ -3124,8 +3229,8 @@
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3139,144 +3244,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E49" s="3">
         <v>31700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>162900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>174200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>191800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>196500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>200900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>206500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>204300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3343,8 +3457,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3411,40 +3528,43 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -3453,34 +3573,37 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>200</v>
       </c>
       <c r="W52" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="X52" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3547,76 +3670,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E54" s="3">
         <v>103100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>230100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>246000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>250700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>260900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>276400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>283000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>278800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>173200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>79900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3641,8 +3770,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3667,76 +3797,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>6300</v>
       </c>
       <c r="F57" s="3">
         <v>6300</v>
       </c>
       <c r="G57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3761,38 +3895,38 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
       </c>
       <c r="P58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>5</v>
@@ -3803,159 +3937,168 @@
       <c r="X58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E59" s="3">
         <v>26100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E60" s="3">
         <v>32500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>28800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>15200</v>
       </c>
       <c r="N60" s="3">
         <v>15200</v>
       </c>
       <c r="O60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="P60" s="3">
         <v>9100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E61" s="3">
         <v>28200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>27900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>27700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3972,111 +4115,117 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>400</v>
       </c>
       <c r="O61" s="3">
+        <v>400</v>
+      </c>
+      <c r="P61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E62" s="3">
         <v>21600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>300</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>300</v>
-      </c>
-      <c r="W62" s="3">
-        <v>400</v>
       </c>
       <c r="X62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4143,8 +4292,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4211,8 +4363,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4279,76 +4434,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>36900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>15600</v>
       </c>
       <c r="N66" s="3">
         <v>15600</v>
       </c>
       <c r="O66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="P66" s="3">
         <v>9600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4373,8 +4534,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4441,8 +4603,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4509,8 +4674,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4577,8 +4745,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4645,76 +4816,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-273400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-274900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-127200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-120200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-80900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-63800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-55100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-51400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-21900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-25300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4781,8 +4958,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4849,8 +5029,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4917,76 +5100,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E76" s="3">
         <v>20800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>152400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>169000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>217000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>224000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>239200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>250400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>249400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>155600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>62400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>64300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5053,149 +5242,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-147700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5220,76 +5418,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E83" s="3">
         <v>6400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>4700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5356,8 +5558,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5424,8 +5629,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5492,8 +5700,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5560,8 +5771,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5628,76 +5842,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E89" s="3">
         <v>2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>6300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5722,65 +5942,66 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>1400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
-        <v>-200</v>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -5788,10 +6009,13 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5858,8 +6082,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5926,76 +6153,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-4000</v>
       </c>
       <c r="H94" s="3">
         <v>-4000</v>
       </c>
       <c r="I94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-94600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6020,8 +6253,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6088,8 +6322,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6156,8 +6393,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6224,8 +6464,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6292,8 +6535,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6301,199 +6547,208 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>27000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>154700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>2500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>142400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>GAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,18 +665,18 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -684,219 +684,233 @@
     <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F8" s="3">
         <v>35100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>36900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>32100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>35000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>37500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>30400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>32300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>34400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>27100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>35200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>30000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>11300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>14000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>6200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>4800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>4800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F9" s="3">
         <v>10200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>10000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>9400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>10500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>11700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>11500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>8700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>18500</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>11900</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
@@ -909,65 +923,71 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F10" s="3">
         <v>24900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>26900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>22700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>24500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>25800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>18900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>21500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>24000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>18400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>24700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>11500</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>2100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
@@ -980,8 +1000,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,59 +1033,61 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F12" s="3">
         <v>9600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>7200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>5000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>5200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>7000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>11000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3">
         <v>3400</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1078,8 +1106,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,65 +1183,71 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F14" s="3">
         <v>-9300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>137100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>29600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1220,61 +1260,67 @@
       <c r="Y14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E15" s="3">
         <v>4200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G15" s="3">
         <v>6400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>5900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>6600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>4400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4600</v>
       </c>
       <c r="K15" s="3">
         <v>4100</v>
       </c>
       <c r="L15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N15" s="3">
         <v>4000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3300</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>4300</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1291,8 +1337,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1315,150 +1367,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>50700</v>
+      </c>
+      <c r="F17" s="3">
         <v>31800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>182400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>37300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>72700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>41600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>46800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>39400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>37100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>32100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>54600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>16600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>27400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>22200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>8300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>8000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>8400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>7700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-145500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-37700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-16400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-19400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-8300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-8200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-3600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1484,68 +1550,70 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1555,102 +1623,114 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5800</v>
+        <v>-2800</v>
       </c>
       <c r="E21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-137900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-32000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-11800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-16300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>7000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
       </c>
       <c r="F22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1659,188 +1739,206 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-144300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-38600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-16000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-19900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-8600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-8600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-3000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-3600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-200</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
       </c>
       <c r="I24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>600</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>600</v>
+      </c>
+      <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
         <v>-900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-1800</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1910,150 +2008,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-147700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-38300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-12500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-20200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-8800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-7700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-2500</v>
       </c>
       <c r="W26" s="3">
         <v>-1800</v>
       </c>
       <c r="X26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-147700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-38300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-20200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-8800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-7700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-2500</v>
       </c>
       <c r="W27" s="3">
         <v>-1800</v>
       </c>
       <c r="X27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2123,8 +2239,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2194,8 +2316,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2265,8 +2393,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2336,68 +2470,74 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2407,79 +2547,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-147700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-38300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-12500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-20200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-8800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-7700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-2500</v>
       </c>
       <c r="W33" s="3">
         <v>-1800</v>
       </c>
       <c r="X33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2549,155 +2701,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-147700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-38300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-12500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-20200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-8800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-7700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-2500</v>
       </c>
       <c r="W35" s="3">
         <v>-1800</v>
       </c>
       <c r="X35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2723,8 +2893,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2750,79 +2922,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>43400</v>
+      </c>
+      <c r="F41" s="3">
         <v>40800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>45900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>41800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>49100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>33600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>39500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>50300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>52100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>52200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>152700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>57500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>63800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>9100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>4900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2892,79 +3072,91 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F43" s="3">
         <v>13900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>13800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>13100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>11200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>7800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>8100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>12200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>12200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>8100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>9100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>7600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>9200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>12700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>5300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>9100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>4300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>4800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>3500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2995,33 +3187,33 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>900</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
         <v>1200</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
@@ -3029,155 +3221,173 @@
         <v>5</v>
       </c>
       <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>100</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F45" s="3">
         <v>8400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>7800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>60900</v>
+      </c>
+      <c r="F46" s="3">
         <v>63100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>67600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>62900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>67400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>49200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>54400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>62500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>68800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>70600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>163500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>70200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>72800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>18000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>18800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>17000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>13800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>9200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>8100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>9600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>8700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>8500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3208,35 +3418,35 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>300</v>
-      </c>
-      <c r="O47" s="3">
-        <v>100</v>
-      </c>
-      <c r="P47" s="3">
-        <v>100</v>
       </c>
       <c r="Q47" s="3">
         <v>100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
+      <c r="R47" s="3">
+        <v>100</v>
+      </c>
+      <c r="S47" s="3">
+        <v>100</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3247,150 +3457,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>4400</v>
       </c>
       <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>3300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>26800</v>
+      </c>
+      <c r="F49" s="3">
         <v>29900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>31700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>162900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>174200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>191800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>196500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>200900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>206500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>204300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>6000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>10300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>6800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>7200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>7700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>7900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>7400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3460,8 +3688,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3531,79 +3765,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>9700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>6700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>13000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
       </c>
       <c r="S52" s="3">
+        <v>800</v>
+      </c>
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3673,79 +3919,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>95000</v>
+      </c>
+      <c r="F54" s="3">
         <v>96600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>103100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>230100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>246000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>250700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>260900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>276400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>283000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>278800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>173200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>78000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>79900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>24500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>26200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>23100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>22600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>15300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>15800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>17900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>17400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>17600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3771,8 +4029,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3798,79 +4058,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>13400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>12900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>9400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>9100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>3700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3898,41 +4166,41 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>900</v>
       </c>
       <c r="R58" s="3">
         <v>500</v>
       </c>
       <c r="S58" s="3">
+        <v>900</v>
+      </c>
+      <c r="T58" s="3">
+        <v>500</v>
+      </c>
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
+      <c r="W58" s="3">
+        <v>0</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>5</v>
@@ -3940,171 +4208,189 @@
       <c r="Y58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F59" s="3">
         <v>25400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>26100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>20300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>21200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>24200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>27800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>28700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>24600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>21200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>12600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>9500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>7100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1300</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F60" s="3">
         <v>31000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>32500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>26700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>27400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>30000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>33000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>33300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>28800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>25500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>17300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>15200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>12300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>4200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>39800</v>
+      </c>
+      <c r="F61" s="3">
         <v>28500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>28200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>27900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>27700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4118,114 +4404,126 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2500</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F62" s="3">
         <v>12600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>21600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>23200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>21900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3700</v>
       </c>
       <c r="L62" s="3">
         <v>3900</v>
       </c>
       <c r="M62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>300</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <v>200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4295,8 +4593,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4366,8 +4670,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4437,79 +4747,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>85000</v>
+      </c>
+      <c r="F66" s="3">
         <v>72000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>82300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>77700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>77000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>33700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>36900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>37200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>32500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>29400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>17700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>12900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>10600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4535,8 +4857,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4606,8 +4930,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4677,8 +5007,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4748,8 +5084,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4819,79 +5161,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-299900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-291800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-273400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-274900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-127200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-120200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-80900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-76400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-63800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-55100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-51400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-45800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-23000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-16900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-25300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-14800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-14700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-13000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-10600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4961,8 +5315,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5032,8 +5392,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5103,79 +5469,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F76" s="3">
         <v>24600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>152400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>169000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>217000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>224000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>239200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>250400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>249400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>155600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>62400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>64300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>14800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>15100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>10200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>12000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>9300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>11100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>13500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>13000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5245,155 +5623,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-147700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-38300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-12500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-20200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-8800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-7700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-2500</v>
       </c>
       <c r="W81" s="3">
         <v>-1800</v>
       </c>
       <c r="X81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5419,79 +5815,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E83" s="3">
         <v>4200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G83" s="3">
         <v>6400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>5900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>6600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4600</v>
       </c>
       <c r="K83" s="3">
         <v>4100</v>
       </c>
       <c r="L83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N83" s="3">
         <v>4000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>4700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>6200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>2400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>2700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>2500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>2400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>2000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5561,8 +5965,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5632,8 +6042,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5703,8 +6119,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5774,8 +6196,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5845,79 +6273,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-4600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>6300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>5300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5943,61 +6383,63 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>1400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
@@ -6006,16 +6448,22 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6085,8 +6533,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6156,79 +6610,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-8500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-7900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-94600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-2900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-3400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-3200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6254,8 +6720,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6325,8 +6793,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6396,8 +6870,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6467,8 +6947,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6538,8 +7024,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6547,208 +7039,226 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>27000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>154700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>5700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>5200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>2500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>3200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>15500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-10800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>142400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-6400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>3200</v>
-      </c>
-      <c r="R102" s="3">
-        <v>3600</v>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S102" s="3">
         <v>3200</v>
       </c>
       <c r="T102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V102" s="3">
         <v>2300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
-      </c>
-      <c r="V102" s="3">
-        <v>200</v>
-      </c>
-      <c r="W102" s="3">
-        <v>-1000</v>
       </c>
       <c r="X102" s="3">
         <v>200</v>
       </c>
       <c r="Y102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-4700</v>
       </c>
     </row>
